--- a/data/trans_orig/P26-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P26-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>181599</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>159139</v>
+        <v>157277</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>203340</v>
+        <v>203286</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2825088141351036</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2475673971918107</v>
+        <v>0.2446704320717694</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3163302419106448</v>
+        <v>0.3162452826594708</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>236</v>
@@ -765,19 +765,19 @@
         <v>233704</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>207702</v>
+        <v>211314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>259250</v>
+        <v>257879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3743041023255719</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3326587075963311</v>
+        <v>0.3384429879872985</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4152178294458771</v>
+        <v>0.4130221491906101</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>413</v>
@@ -786,19 +786,19 @@
         <v>415304</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>385038</v>
+        <v>384078</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>448615</v>
+        <v>449892</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3277385691698868</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3038541120578836</v>
+        <v>0.303096269810673</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.354026044356144</v>
+        <v>0.3550339947413971</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>461211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>439470</v>
+        <v>439524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>483671</v>
+        <v>485533</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7174911858648964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6836697580893552</v>
+        <v>0.6837547173405292</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7524326028081894</v>
+        <v>0.7553295679282306</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>396</v>
@@ -836,19 +836,19 @@
         <v>390666</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>365120</v>
+        <v>366491</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>416668</v>
+        <v>413056</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6256958976744281</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5847821705541228</v>
+        <v>0.5869778508093895</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6673412924036688</v>
+        <v>0.6615570120127011</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>851</v>
@@ -857,19 +857,19 @@
         <v>851876</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>818565</v>
+        <v>817288</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>882142</v>
+        <v>883102</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6722614308301131</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6459739556438557</v>
+        <v>0.6449660052586026</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6961458879421163</v>
+        <v>0.6969037301893269</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>261376</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>235343</v>
+        <v>234664</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>292519</v>
+        <v>290986</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2881026351844278</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2594072645357988</v>
+        <v>0.258659185995352</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3224297952518488</v>
+        <v>0.3207402370373852</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>319</v>
@@ -982,19 +982,19 @@
         <v>335265</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>306298</v>
+        <v>307651</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>365609</v>
+        <v>366800</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3767042727131975</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3441567187168711</v>
+        <v>0.3456766015380306</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4107981036586724</v>
+        <v>0.4121367217759976</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>563</v>
@@ -1003,19 +1003,19 @@
         <v>596642</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>558378</v>
+        <v>556694</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>642203</v>
+        <v>640887</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3319785757023102</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3106882268707755</v>
+        <v>0.3097510346190048</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3573292963464042</v>
+        <v>0.3565972903684643</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>645857</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>614714</v>
+        <v>616247</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>671890</v>
+        <v>672569</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7118973648155722</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6775702047481512</v>
+        <v>0.679259762962615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7405927354642013</v>
+        <v>0.7413408140046479</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>516</v>
@@ -1053,19 +1053,19 @@
         <v>554731</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>524387</v>
+        <v>523196</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>583698</v>
+        <v>582345</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6232957272868026</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5892018963413276</v>
+        <v>0.587863278224003</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6558432812831289</v>
+        <v>0.6543233984619699</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1119</v>
@@ -1074,19 +1074,19 @@
         <v>1200587</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1155026</v>
+        <v>1156342</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1238851</v>
+        <v>1240535</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6680214242976898</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6426707036535951</v>
+        <v>0.6434027096315357</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6893117731292244</v>
+        <v>0.6902489653809951</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>188754</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>167195</v>
+        <v>162885</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217782</v>
+        <v>213662</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2974306369659024</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2634583999951715</v>
+        <v>0.2566682039043742</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3431719074436734</v>
+        <v>0.3366797330337503</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>231</v>
@@ -1199,19 +1199,19 @@
         <v>224068</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>199311</v>
+        <v>199761</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>248284</v>
+        <v>246604</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3593775257614728</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3196704219496909</v>
+        <v>0.3203914770889021</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3982169261079488</v>
+        <v>0.3955212220745815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>409</v>
@@ -1220,19 +1220,19 @@
         <v>412822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>380481</v>
+        <v>379131</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>446936</v>
+        <v>446279</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3281301951469493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3024245135114627</v>
+        <v>0.3013508958198514</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3552455640075978</v>
+        <v>0.354723679125469</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>445861</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>416833</v>
+        <v>420953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467420</v>
+        <v>471730</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7025693630340977</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6568280925563266</v>
+        <v>0.6633202669662505</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7365416000048285</v>
+        <v>0.7433317960956257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>406</v>
@@ -1270,19 +1270,19 @@
         <v>399422</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>375206</v>
+        <v>376886</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>424179</v>
+        <v>423729</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6406224742385273</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6017830738920511</v>
+        <v>0.6044787779254185</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6803295780503091</v>
+        <v>0.6796085229110979</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>830</v>
@@ -1291,19 +1291,19 @@
         <v>845282</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>811168</v>
+        <v>811825</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>877623</v>
+        <v>878973</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6718698048530507</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6447544359924023</v>
+        <v>0.6452763208745311</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6975754864885374</v>
+        <v>0.6986491041801487</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>242155</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>215096</v>
+        <v>218422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>266026</v>
+        <v>271110</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2792354652309994</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2480321955795738</v>
+        <v>0.2518680608087055</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3067610642570284</v>
+        <v>0.3126240474683004</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>338</v>
@@ -1416,19 +1416,19 @@
         <v>353791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>322924</v>
+        <v>322426</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>383118</v>
+        <v>384042</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3706442232548608</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3383066240722793</v>
+        <v>0.3377843834074363</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4013679531594401</v>
+        <v>0.4023360122157176</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>595</v>
@@ -1437,19 +1437,19 @@
         <v>595947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>557028</v>
+        <v>557861</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>637065</v>
+        <v>635754</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3271306166447446</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3057672446245435</v>
+        <v>0.3062243983356651</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3497014358505509</v>
+        <v>0.34898212814188</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>625053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>601182</v>
+        <v>596098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>652112</v>
+        <v>648786</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7207645347690006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6932389357429715</v>
+        <v>0.6873759525316997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.751967804420426</v>
+        <v>0.7481319391912945</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>580</v>
@@ -1487,19 +1487,19 @@
         <v>600740</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>571413</v>
+        <v>570489</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>631607</v>
+        <v>632105</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6293557767451392</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5986320468405597</v>
+        <v>0.5976639877842824</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6616933759277207</v>
+        <v>0.6622156165925638</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1241</v>
@@ -1508,19 +1508,19 @@
         <v>1225792</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1184674</v>
+        <v>1185985</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1264711</v>
+        <v>1263878</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6728693833552554</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6502985641494491</v>
+        <v>0.65101787185812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6942327553754566</v>
+        <v>0.6937756016643348</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>873885</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>825789</v>
+        <v>826315</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>926213</v>
+        <v>931572</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2863444452436598</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2705848050544009</v>
+        <v>0.2707574411682034</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3034906767651023</v>
+        <v>0.3052467026159444</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1124</v>
@@ -1633,19 +1633,19 @@
         <v>1146829</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1091059</v>
+        <v>1092916</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1201945</v>
+        <v>1198023</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3708556685110074</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3528210550823786</v>
+        <v>0.3534214360958988</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3886787421808803</v>
+        <v>0.3874104871631546</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1980</v>
@@ -1654,19 +1654,19 @@
         <v>2020714</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1950996</v>
+        <v>1950890</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2095889</v>
+        <v>2095334</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.328878730484034</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3175317697436003</v>
+        <v>0.3175145461258579</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3411137268497172</v>
+        <v>0.3410233680397469</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2177981</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2125653</v>
+        <v>2120294</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2226077</v>
+        <v>2225551</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7136555547563402</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6965093232348978</v>
+        <v>0.6947532973840556</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7294151949455991</v>
+        <v>0.7292425588317967</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1898</v>
@@ -1704,19 +1704,19 @@
         <v>1945558</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1890442</v>
+        <v>1894364</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2001328</v>
+        <v>1999471</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6291443314889926</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6113212578191196</v>
+        <v>0.6125895128368453</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6471789449176214</v>
+        <v>0.6465785639041011</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4041</v>
@@ -1725,19 +1725,19 @@
         <v>4123539</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4048364</v>
+        <v>4048919</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4193257</v>
+        <v>4193363</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.671121269515966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6588862731502828</v>
+        <v>0.6589766319602531</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6824682302563996</v>
+        <v>0.6824854538741422</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>188635</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>164536</v>
+        <v>165500</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>214603</v>
+        <v>212519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2770140561952766</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2416238166465139</v>
+        <v>0.2430389096422802</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3151486109798373</v>
+        <v>0.3120874689385305</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>230</v>
@@ -2090,19 +2090,19 @@
         <v>246279</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>222363</v>
+        <v>221176</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>274033</v>
+        <v>271525</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3768378669214532</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3402432520651362</v>
+        <v>0.3384273534889409</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.419305404390339</v>
+        <v>0.4154675928760795</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>411</v>
@@ -2111,19 +2111,19 @@
         <v>434914</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>400542</v>
+        <v>402013</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>471307</v>
+        <v>473167</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.325900456713234</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.300144646937086</v>
+        <v>0.3012469379380094</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3531716760036125</v>
+        <v>0.3545655405420116</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>492324</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>466356</v>
+        <v>468440</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>516423</v>
+        <v>515459</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7229859438047234</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6848513890201627</v>
+        <v>0.6879125310614693</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7583761833534862</v>
+        <v>0.7569610903577199</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>380</v>
@@ -2161,19 +2161,19 @@
         <v>407261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>379507</v>
+        <v>382015</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>431177</v>
+        <v>432364</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6231621330785468</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.580694595609661</v>
+        <v>0.5845324071239204</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6597567479348637</v>
+        <v>0.6615726465110591</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>852</v>
@@ -2182,19 +2182,19 @@
         <v>899584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>863191</v>
+        <v>861331</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>933956</v>
+        <v>932485</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.674099543286766</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6468283239963875</v>
+        <v>0.6454344594579884</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.699855353062914</v>
+        <v>0.6987530620619905</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>320697</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>293095</v>
+        <v>289351</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>351273</v>
+        <v>349423</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3267676029385908</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2986428198835827</v>
+        <v>0.2948283919905299</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3579216914446561</v>
+        <v>0.3560373475316237</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>364</v>
@@ -2307,19 +2307,19 @@
         <v>397329</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>365081</v>
+        <v>363363</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>430037</v>
+        <v>429476</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4004022152800628</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3679046125870848</v>
+        <v>0.3661731881144131</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.433363416085508</v>
+        <v>0.4327973199865344</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>660</v>
@@ -2328,19 +2328,19 @@
         <v>718026</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>674477</v>
+        <v>674569</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>765447</v>
+        <v>763841</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3637882683569825</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3417243541359148</v>
+        <v>0.3417709829001981</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3878143359678384</v>
+        <v>0.3870002609878565</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>660726</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>630150</v>
+        <v>632000</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>688328</v>
+        <v>692072</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6732323970614092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.642078308555344</v>
+        <v>0.6439626524683763</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7013571801164173</v>
+        <v>0.7051716080094702</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>539</v>
@@ -2378,19 +2378,19 @@
         <v>594996</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>562288</v>
+        <v>562849</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>627244</v>
+        <v>628962</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5995977847199373</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.566636583914492</v>
+        <v>0.5672026800134656</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.632095387412915</v>
+        <v>0.633826811885587</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1146</v>
@@ -2399,19 +2399,19 @@
         <v>1255721</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1208300</v>
+        <v>1209906</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1299270</v>
+        <v>1299178</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6362117316430175</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6121856640321615</v>
+        <v>0.6129997390121434</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.658275645864085</v>
+        <v>0.6582290170998019</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>236498</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>211499</v>
+        <v>210657</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>262432</v>
+        <v>263975</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3299030925083544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.295031286588246</v>
+        <v>0.2938560158989473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3660804051011932</v>
+        <v>0.3682326148469818</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>278</v>
@@ -2524,19 +2524,19 @@
         <v>301747</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>273572</v>
+        <v>273144</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>328058</v>
+        <v>327497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.411731512172392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3732864038402157</v>
+        <v>0.3727027869636004</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4476330314417561</v>
+        <v>0.4468669652971746</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>496</v>
@@ -2545,19 +2545,19 @@
         <v>538245</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>502369</v>
+        <v>499268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>580930</v>
+        <v>577192</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3712689480384279</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3465229646093076</v>
+        <v>0.344383873683244</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4007125885705197</v>
+        <v>0.3981340709993457</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>480372</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>454438</v>
+        <v>452895</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>505371</v>
+        <v>506213</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6700969074916456</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6339195948988069</v>
+        <v>0.6317673851530183</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7049687134117549</v>
+        <v>0.7061439841010527</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>388</v>
@@ -2595,19 +2595,19 @@
         <v>431126</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>404815</v>
+        <v>405376</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>459301</v>
+        <v>459729</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.588268487827608</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5523669685582439</v>
+        <v>0.5531330347028255</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6267135961597843</v>
+        <v>0.6272972130363994</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>824</v>
@@ -2616,19 +2616,19 @@
         <v>911498</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>868813</v>
+        <v>872551</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>947374</v>
+        <v>950475</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6287310519615721</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5992874114294807</v>
+        <v>0.6018659290006542</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6534770353906927</v>
+        <v>0.6556161263167559</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>332951</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>303814</v>
+        <v>302472</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>364673</v>
+        <v>362328</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3694420589974073</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3371113651310816</v>
+        <v>0.3356226952962241</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4046414399110961</v>
+        <v>0.4020391554841905</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>343</v>
@@ -2741,19 +2741,19 @@
         <v>357101</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>327908</v>
+        <v>324474</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>391255</v>
+        <v>386606</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3628875905541913</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.333220837642344</v>
+        <v>0.3297313932961462</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.397594238504517</v>
+        <v>0.392869948653434</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>665</v>
@@ -2762,19 +2762,19 @@
         <v>690052</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>650764</v>
+        <v>650680</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>737592</v>
+        <v>734595</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3660208416709512</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.345181368053114</v>
+        <v>0.3451371406966092</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3912373437371064</v>
+        <v>0.3896472245760463</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>568275</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>536553</v>
+        <v>538898</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>597412</v>
+        <v>598754</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6305579410025928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5953585600889038</v>
+        <v>0.5979608445158094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6628886348689184</v>
+        <v>0.6643773047037759</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>598</v>
@@ -2812,19 +2812,19 @@
         <v>626954</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>592800</v>
+        <v>597449</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>656147</v>
+        <v>659581</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6371124094458086</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6024057614954831</v>
+        <v>0.6071300513465659</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.666779162357656</v>
+        <v>0.6702686067038537</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1142</v>
@@ -2833,19 +2833,19 @@
         <v>1195229</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1147689</v>
+        <v>1150686</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1234517</v>
+        <v>1234601</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6339791583290488</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6087626562628938</v>
+        <v>0.6103527754239532</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6548186319468861</v>
+        <v>0.6548628593033905</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1078781</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1018936</v>
+        <v>1029387</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1130822</v>
+        <v>1133642</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3288486952826808</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3106059583919552</v>
+        <v>0.313791861544638</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3447125344935202</v>
+        <v>0.3455722385912038</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1215</v>
@@ -2958,19 +2958,19 @@
         <v>1302456</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1244971</v>
+        <v>1241515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1362857</v>
+        <v>1362598</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3873137633481952</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3702195277666105</v>
+        <v>0.3691918211948201</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4052755009581617</v>
+        <v>0.4051984659763086</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2232</v>
@@ -2979,19 +2979,19 @@
         <v>2381237</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2293787</v>
+        <v>2299785</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2462926</v>
+        <v>2458632</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3584434419315545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3452798315826338</v>
+        <v>0.3461827164662653</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3707399818512888</v>
+        <v>0.3700936182335494</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2201696</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2149655</v>
+        <v>2146835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2261541</v>
+        <v>2251090</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6711513047173192</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6552874655064794</v>
+        <v>0.6544277614087959</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6893940416080447</v>
+        <v>0.6862081384553619</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1905</v>
@@ -3029,19 +3029,19 @@
         <v>2060336</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1999935</v>
+        <v>2000194</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2117821</v>
+        <v>2121277</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6126862366518049</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5947244990418383</v>
+        <v>0.5948015340236916</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6297804722333897</v>
+        <v>0.63080817880518</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3964</v>
@@ -3050,19 +3050,19 @@
         <v>4262033</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4180344</v>
+        <v>4184638</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4349483</v>
+        <v>4343485</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6415565580684455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6292600181487111</v>
+        <v>0.6299063817664506</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6547201684173662</v>
+        <v>0.6538172835337348</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>155761</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134046</v>
+        <v>135152</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>179126</v>
+        <v>180175</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2544912442850157</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2190118692717153</v>
+        <v>0.2208193512887091</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2926677432648283</v>
+        <v>0.2943812580157812</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>172</v>
@@ -3415,19 +3415,19 @@
         <v>170239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>150486</v>
+        <v>147901</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>194079</v>
+        <v>191781</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2726654681029475</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2410288197837582</v>
+        <v>0.236887504777497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3108492367419498</v>
+        <v>0.3071690602059304</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>317</v>
@@ -3436,19 +3436,19 @@
         <v>326000</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>296963</v>
+        <v>295673</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>358549</v>
+        <v>358000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2636687797013312</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2401843647372604</v>
+        <v>0.2391408192344708</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2899951641230725</v>
+        <v>0.2895509638953274</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>456286</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432921</v>
+        <v>431872</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>478001</v>
+        <v>476895</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7455087557149843</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7073322567351717</v>
+        <v>0.7056187419842188</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7809881307282854</v>
+        <v>0.7791806487112916</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>448</v>
@@ -3486,19 +3486,19 @@
         <v>454111</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>430271</v>
+        <v>432569</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>473864</v>
+        <v>476449</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7273345318970525</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.68915076325805</v>
+        <v>0.6928309397940695</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7589711802162417</v>
+        <v>0.7631124952225029</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>895</v>
@@ -3507,19 +3507,19 @@
         <v>910398</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>877849</v>
+        <v>878398</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>939435</v>
+        <v>940725</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7363312202986687</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7100048358769273</v>
+        <v>0.7104490361046727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7598156352627395</v>
+        <v>0.7608591807655293</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>228619</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>202700</v>
+        <v>204516</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>256996</v>
+        <v>258413</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2367789063520945</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2099354769232296</v>
+        <v>0.2118165402912517</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2661693717809162</v>
+        <v>0.2676363754035572</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>235</v>
@@ -3632,19 +3632,19 @@
         <v>247274</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>221501</v>
+        <v>222610</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>276373</v>
+        <v>276978</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2524379691300137</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2261269177620935</v>
+        <v>0.2272594770265758</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2821451772338586</v>
+        <v>0.2827625255228869</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>445</v>
@@ -3653,19 +3653,19 @@
         <v>475893</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>438016</v>
+        <v>440208</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>513408</v>
+        <v>519223</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2446648205277863</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2251918168726526</v>
+        <v>0.2263189188710686</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2639522622305024</v>
+        <v>0.2669418887563123</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>736917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>708540</v>
+        <v>707123</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>762836</v>
+        <v>761020</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7632210936479055</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7338306282190837</v>
+        <v>0.7323636245964427</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7900645230767703</v>
+        <v>0.7881834597087483</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>686</v>
@@ -3703,19 +3703,19 @@
         <v>732269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>703170</v>
+        <v>702565</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>758042</v>
+        <v>756933</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7475620308699864</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7178548227661413</v>
+        <v>0.7172374744771131</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7738730822379065</v>
+        <v>0.7727405229734243</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1372</v>
@@ -3724,19 +3724,19 @@
         <v>1469187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1431672</v>
+        <v>1425857</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1507064</v>
+        <v>1504872</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7553351794722136</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7360477377694975</v>
+        <v>0.7330581112436877</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7748081831273473</v>
+        <v>0.7736810811289314</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>203345</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>179783</v>
+        <v>177573</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>229598</v>
+        <v>231165</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2811595707855427</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2485820058948414</v>
+        <v>0.2455257381050269</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3174587286506346</v>
+        <v>0.3196262256488956</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>244</v>
@@ -3849,19 +3849,19 @@
         <v>254313</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>229686</v>
+        <v>228121</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>283002</v>
+        <v>281247</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3470232239065246</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3134180857863964</v>
+        <v>0.3112831436169738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3861710148667507</v>
+        <v>0.3837763230172521</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>429</v>
@@ -3870,19 +3870,19 @@
         <v>457658</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>421382</v>
+        <v>422257</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>492151</v>
+        <v>495049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3143086549843381</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2893950718652789</v>
+        <v>0.2899960818774672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3379976065670249</v>
+        <v>0.3399882548507871</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>519891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>493638</v>
+        <v>492071</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543453</v>
+        <v>545663</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7188404292144573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6825412713493653</v>
+        <v>0.6803737743511041</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7514179941051585</v>
+        <v>0.7544742618949728</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>444</v>
@@ -3920,19 +3920,19 @@
         <v>478529</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>449840</v>
+        <v>451595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>503156</v>
+        <v>504721</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6529767760934754</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6138289851332493</v>
+        <v>0.616223676982748</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6865819142136039</v>
+        <v>0.6887168563830263</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>922</v>
@@ -3941,19 +3941,19 @@
         <v>998420</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>963927</v>
+        <v>961029</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1034696</v>
+        <v>1033821</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6856913450156619</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6620023934329752</v>
+        <v>0.6600117451492129</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7106049281347211</v>
+        <v>0.7100039181225329</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>207063</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>181706</v>
+        <v>182737</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>232928</v>
+        <v>234350</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2435682565407636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2137410176484183</v>
+        <v>0.2149539958517034</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2739938624495859</v>
+        <v>0.2756662349699144</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -4066,19 +4066,19 @@
         <v>206425</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>179511</v>
+        <v>180976</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>235794</v>
+        <v>234213</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2180690166768977</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1896373845560054</v>
+        <v>0.1911851169845878</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2490950530245707</v>
+        <v>0.2474252456019211</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>398</v>
@@ -4087,19 +4087,19 @@
         <v>413487</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>378076</v>
+        <v>378430</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>449133</v>
+        <v>451583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2301340140296317</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2104253753879947</v>
+        <v>0.2106223557939373</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.249973123865873</v>
+        <v>0.2513371286482673</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>643059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>617194</v>
+        <v>615772</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>668416</v>
+        <v>667385</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7564317434592365</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7260061375504141</v>
+        <v>0.7243337650300856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7862589823515818</v>
+        <v>0.7850460041482966</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>684</v>
@@ -4137,19 +4137,19 @@
         <v>740177</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>710808</v>
+        <v>712389</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>767091</v>
+        <v>765626</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7819309833231023</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7509049469754294</v>
+        <v>0.7525747543980793</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.810362615443995</v>
+        <v>0.8088148830154128</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1327</v>
@@ -4158,19 +4158,19 @@
         <v>1383237</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1347591</v>
+        <v>1345141</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1418648</v>
+        <v>1418294</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7698659859703684</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7500268761341272</v>
+        <v>0.7486628713517327</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7895746246120053</v>
+        <v>0.7893776442060628</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>794787</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>748210</v>
+        <v>743291</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>849146</v>
+        <v>844942</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2522378595215464</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2374560259055203</v>
+        <v>0.2358948852814398</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2694897058107504</v>
+        <v>0.2681552675323045</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>844</v>
@@ -4283,19 +4283,19 @@
         <v>878250</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>828038</v>
+        <v>827483</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>933763</v>
+        <v>925754</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2674871036670893</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2521939674098385</v>
+        <v>0.252025069490217</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2843944411464815</v>
+        <v>0.2819551037244463</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1589</v>
@@ -4304,19 +4304,19 @@
         <v>1673037</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1603038</v>
+        <v>1603740</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1746552</v>
+        <v>1750597</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2600193706007274</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2491402588457756</v>
+        <v>0.2492494024021447</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2714448013132445</v>
+        <v>0.2720735874534042</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2356155</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2301796</v>
+        <v>2306000</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2402732</v>
+        <v>2407651</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7477621404784537</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7305102941892495</v>
+        <v>0.7318447324676953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7625439740944796</v>
+        <v>0.76410511471856</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2262</v>
@@ -4354,19 +4354,19 @@
         <v>2405087</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2349574</v>
+        <v>2357583</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2455299</v>
+        <v>2455854</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7325128963329107</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7156055588535196</v>
+        <v>0.7180448962755535</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7478060325901615</v>
+        <v>0.7479749305097827</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4516</v>
@@ -4375,19 +4375,19 @@
         <v>4761242</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4687727</v>
+        <v>4683682</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4831241</v>
+        <v>4830539</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7399806293992726</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7285551986867554</v>
+        <v>0.727926412546596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7508597411542245</v>
+        <v>0.7507505975978552</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>52619</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37457</v>
+        <v>38408</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69897</v>
+        <v>73169</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08724639596545279</v>
+        <v>0.08724639596545281</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06210764873322698</v>
+        <v>0.0636840321353026</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1158953858117765</v>
+        <v>0.1213213665341401</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -4740,19 +4740,19 @@
         <v>60246</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48669</v>
+        <v>49025</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73837</v>
+        <v>74292</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09204498585248003</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07435672453355216</v>
+        <v>0.07490033734277568</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1128087517819055</v>
+        <v>0.1135037617414526</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -4761,19 +4761,19 @@
         <v>112865</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93265</v>
+        <v>93936</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>138295</v>
+        <v>136688</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08974380844250661</v>
+        <v>0.08974380844250658</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07415936694261215</v>
+        <v>0.07469245650316711</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1099639553359399</v>
+        <v>0.1086866741025312</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>550484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>533206</v>
+        <v>529934</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>565646</v>
+        <v>564695</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9127536040345471</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8841046141882235</v>
+        <v>0.8786786334658598</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.937892351266773</v>
+        <v>0.9363159678646973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>997</v>
@@ -4811,19 +4811,19 @@
         <v>594287</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>580696</v>
+        <v>580241</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>605864</v>
+        <v>605508</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9079550141475201</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8871912482180949</v>
+        <v>0.8864962382585467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.925643275466448</v>
+        <v>0.9250996626572242</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1595</v>
@@ -4832,19 +4832,19 @@
         <v>1144771</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1119341</v>
+        <v>1120948</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1164371</v>
+        <v>1163700</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9102561915574934</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8900360446640602</v>
+        <v>0.8913133258974688</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9258406330573877</v>
+        <v>0.925307543496833</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>89121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68293</v>
+        <v>68459</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113824</v>
+        <v>115565</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09293986126759107</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0712197338520959</v>
+        <v>0.07139199054076897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1187018368218843</v>
+        <v>0.1205170441154743</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>183</v>
@@ -4957,19 +4957,19 @@
         <v>136915</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>117991</v>
+        <v>117220</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>158382</v>
+        <v>158753</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1399193564900946</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1205801215404157</v>
+        <v>0.1197922853296675</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1618582007939452</v>
+        <v>0.1622372841132295</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>251</v>
@@ -4978,19 +4978,19 @@
         <v>226036</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>199460</v>
+        <v>196179</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>257392</v>
+        <v>260644</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1166674251860723</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1029506874243081</v>
+        <v>0.1012570328072527</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1328521180630554</v>
+        <v>0.1345301497044182</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>869790</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>845087</v>
+        <v>843346</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>890618</v>
+        <v>890452</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9070601387324089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8812981631781157</v>
+        <v>0.8794829558845256</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9287802661479041</v>
+        <v>0.9286080094592311</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1183</v>
@@ -5028,19 +5028,19 @@
         <v>841611</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>820144</v>
+        <v>819773</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>860535</v>
+        <v>861306</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8600806435099055</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8381417992060548</v>
+        <v>0.8377627158867701</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8794198784595845</v>
+        <v>0.8802077146703318</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1993</v>
@@ -5049,19 +5049,19 @@
         <v>1711400</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1680044</v>
+        <v>1676792</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1737976</v>
+        <v>1741257</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8833325748139277</v>
+        <v>0.8833325748139276</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8671478819369445</v>
+        <v>0.8654698502955815</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8970493125756921</v>
+        <v>0.8987429671927467</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>83578</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63621</v>
+        <v>62886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107615</v>
+        <v>109675</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1148420803198881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08741978989929762</v>
+        <v>0.08641010170199093</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1478703694248714</v>
+        <v>0.1507011079853944</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>140</v>
@@ -5174,19 +5174,19 @@
         <v>120395</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>101805</v>
+        <v>103390</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>142693</v>
+        <v>141954</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1595728613136516</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.13493237821593</v>
+        <v>0.1370342119937536</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1891264335536731</v>
+        <v>0.1881466337772182</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>200</v>
@@ -5195,19 +5195,19 @@
         <v>203973</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175105</v>
+        <v>176225</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>234064</v>
+        <v>236046</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1376106792410829</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1181348550108401</v>
+        <v>0.1188901855412264</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1579113345309298</v>
+        <v>0.1592487298212477</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>644186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>620149</v>
+        <v>618089</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>664143</v>
+        <v>664878</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8851579196801119</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8521296305751288</v>
+        <v>0.8492988920146056</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9125802101007023</v>
+        <v>0.9135898982980092</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>816</v>
@@ -5245,19 +5245,19 @@
         <v>634091</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>611793</v>
+        <v>612532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>652681</v>
+        <v>651096</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8404271386863483</v>
+        <v>0.8404271386863484</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8108735664463269</v>
+        <v>0.8118533662227819</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8650676217840703</v>
+        <v>0.8629657880062466</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1366</v>
@@ -5266,19 +5266,19 @@
         <v>1278277</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1248186</v>
+        <v>1246204</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1307145</v>
+        <v>1306025</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8623893207589173</v>
+        <v>0.8623893207589172</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8420886654690702</v>
+        <v>0.8407512701787522</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8818651449891604</v>
+        <v>0.8811098144587736</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>141070</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116773</v>
+        <v>118481</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>167042</v>
+        <v>165621</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1551250628378803</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1284077920677076</v>
+        <v>0.1302857745763735</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.183684598149699</v>
+        <v>0.1821222410523938</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>194</v>
@@ -5391,19 +5391,19 @@
         <v>150024</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>130277</v>
+        <v>129701</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>173249</v>
+        <v>171198</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1468290536347398</v>
+        <v>0.1468290536347399</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1275030936180629</v>
+        <v>0.1269396595010137</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1695600255172043</v>
+        <v>0.1675524681153935</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>317</v>
@@ -5412,19 +5412,19 @@
         <v>291094</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>260785</v>
+        <v>258035</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>324884</v>
+        <v>325185</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1507357105092705</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1350413988505187</v>
+        <v>0.1336171626429192</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1682331326724287</v>
+        <v>0.1683892917983172</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>768325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>742353</v>
+        <v>743774</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>792622</v>
+        <v>790914</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8448749371621197</v>
+        <v>0.8448749371621198</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8163154018503012</v>
+        <v>0.8178777589476065</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8715922079322926</v>
+        <v>0.8697142254236269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1220</v>
@@ -5462,19 +5462,19 @@
         <v>871733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>848508</v>
+        <v>850559</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>891480</v>
+        <v>892056</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8531709463652601</v>
+        <v>0.8531709463652603</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8304399744827957</v>
+        <v>0.8324475318846065</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.872496906381937</v>
+        <v>0.8730603404989863</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2013</v>
@@ -5483,19 +5483,19 @@
         <v>1640058</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1606268</v>
+        <v>1605967</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1670367</v>
+        <v>1673117</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8492642894907294</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8317668673275712</v>
+        <v>0.8316107082016828</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8649586011494813</v>
+        <v>0.8663828373570808</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>366387</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>316999</v>
+        <v>323606</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>407169</v>
+        <v>410911</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1145256951120826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09908772796387853</v>
+        <v>0.1011531224447863</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1272732680287439</v>
+        <v>0.1284429699255716</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>605</v>
@@ -5608,19 +5608,19 @@
         <v>467580</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>428741</v>
+        <v>428682</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>506501</v>
+        <v>507207</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1371484006573216</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1257563462065384</v>
+        <v>0.1257389217908425</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1485644074627164</v>
+        <v>0.1487716353345173</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>901</v>
@@ -5629,19 +5629,19 @@
         <v>833968</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>782166</v>
+        <v>780659</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>898302</v>
+        <v>898295</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1261967153310385</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.118358105810615</v>
+        <v>0.1181300526318954</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1359317860020401</v>
+        <v>0.135930775314454</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2832785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2792003</v>
+        <v>2788261</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2882173</v>
+        <v>2875566</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8854743048879172</v>
+        <v>0.8854743048879173</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8727267319712562</v>
+        <v>0.8715570300744283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9009122720361215</v>
+        <v>0.8988468775552138</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4216</v>
@@ -5679,19 +5679,19 @@
         <v>2941722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2902801</v>
+        <v>2902095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2980561</v>
+        <v>2980620</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8628515993426784</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8514355925372833</v>
+        <v>0.8512283646654829</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8742436537934616</v>
+        <v>0.8742610782091577</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6967</v>
@@ -5700,19 +5700,19 @@
         <v>5774506</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5710172</v>
+        <v>5710179</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5826308</v>
+        <v>5827815</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8738032846689615</v>
+        <v>0.8738032846689616</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.86406821399796</v>
+        <v>0.8640692246855459</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8816418941893849</v>
+        <v>0.8818699473681045</v>
       </c>
     </row>
     <row r="18">
